--- a/IPC2024_base2010/imputacion/indxbase2010_6.xlsx
+++ b/IPC2024_base2010/imputacion/indxbase2010_6.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep_6" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indgen_6" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep_div_6" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep2010_6" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indgen2010_6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrepdiv2010_6" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.2474869414766</v>
+        <v>180.247417873009</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144.9393370306781</v>
+        <v>144.9399162735633</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>282.7245586712422</v>
+        <v>282.7245421716246</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.1311264313775</v>
+        <v>164.131047442393</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>283.7542172778524</v>
+        <v>283.7539587293797</v>
       </c>
     </row>
     <row r="6">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.4282344596458</v>
+        <v>160.428064194743</v>
       </c>
     </row>
     <row r="7">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.9354785370228</v>
+        <v>161.9343830185255</v>
       </c>
     </row>
     <row r="8">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>259.1674511747726</v>
+        <v>259.1670367626799</v>
       </c>
     </row>
     <row r="9">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>298.4139142250203</v>
+        <v>298.4138834510629</v>
       </c>
     </row>
     <row r="3">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>131.49573584233</v>
+        <v>131.4957469047568</v>
       </c>
     </row>
     <row r="4">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>120.5156048623342</v>
+        <v>120.5155847012436</v>
       </c>
     </row>
     <row r="5">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>131.5068156955297</v>
+        <v>131.506899648643</v>
       </c>
     </row>
     <row r="7">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>136.6805468314415</v>
+        <v>136.681227637566</v>
       </c>
     </row>
     <row r="8">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>139.3507188803337</v>
+        <v>139.3486034675835</v>
       </c>
     </row>
     <row r="9">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>111.120347949097</v>
+        <v>111.1204274018431</v>
       </c>
     </row>
     <row r="10">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>135.492455636977</v>
+        <v>135.4924921635382</v>
       </c>
     </row>
     <row r="11">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>153.5834001191722</v>
+        <v>153.5844962367776</v>
       </c>
     </row>
     <row r="13">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>138.8429159518414</v>
+        <v>138.8432123519172</v>
       </c>
     </row>
   </sheetData>
